--- a/学府需求分许.xlsx
+++ b/学府需求分许.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="124">
   <si>
     <t>version</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,10 +163,6 @@
   </si>
   <si>
     <t>设计需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用服务端：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -341,13 +337,6 @@
   </si>
   <si>
     <t>完成作业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收提交作业</t>
-  </si>
-  <si>
-    <t>与老师或者同学的即时通信服务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -377,11 +366,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、与老师交流
-2、与同学交流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上在线课</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -403,12 +387,6 @@
   <si>
     <t>1、接收学生提交的作业答案、用时、得分
 2、学生积分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、更新商城信息
-2、商品兑换
-3、商品浏览</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -435,12 +413,148 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1、更新商城信息
+2、商品兑换
+3、商品浏览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收发布作业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、与学生沟通
+2、班级群聊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、与老师交流
+2、与同学交流
+3、班级群聊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与老师或者同学的即时通信服务(视情况实现功能)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即时通信(视情况实现)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、学校通知，新闻，工作动态
+2、新消息提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、老师发布作业
+2、修改定时发布的作业
+3、增删查改作业
+4、查看学生作业完成情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给学生上在线课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(在app上可能不好实现，考虑实现一个PC端的或者网页端的上课应用)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、学生签到
+2、学生回访、建议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交完成的作业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校信息管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、会有多于一个学校提供服务，所以需要管理每个学校的信息
+2、学校注册入驻
+3、服务费用管理
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、学校发布通知、课程推介、活动预告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、创建班级，班级标识、代号、二维码
+2、给班级分配老师、学生
+3、拟定课程表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师、学生信息统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、基本的教师管理，比如姓名、性别，工作分工
+2、基本的学生管理，姓名、性别，所属班级，上课情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线考试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、组织考试
+2、发布考题
+3、分配教师批阅
+4、评分反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生数据分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、根据学生的上课和作业完成情况分析出学生的优缺点，提供合理的改进的建议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人信息设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、姓名、性别，特长、爱好，照片等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、学校介绍
+2、学校最新活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、服务端要设计成可伸缩型的架构，可以根据负载情况改变服务器使用数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -481,6 +595,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -502,7 +623,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -516,6 +637,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -661,7 +788,7 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>599143</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>218445</xdr:rowOff>
+      <xdr:rowOff>46995</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1066,15 +1193,15 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
         <v>57</v>
-      </c>
-      <c r="B22" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1090,7 +1217,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1234,10 +1361,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1259,269 +1386,392 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
     <row r="4" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="B11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="B13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="5"/>
+      <c r="B14" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A16" s="5"/>
+      <c r="B16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A17" s="5"/>
+      <c r="B17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
+    <row r="18" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A18" s="5"/>
+      <c r="B18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A19" s="5"/>
+      <c r="B19" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="5"/>
+      <c r="B20" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="54" x14ac:dyDescent="0.15">
+      <c r="A21" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
+      <c r="B21" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="5"/>
+      <c r="B22" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="5"/>
+      <c r="B23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A24" s="5"/>
+      <c r="B24" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="54" x14ac:dyDescent="0.15">
+      <c r="A25" s="5"/>
+      <c r="B25" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A26" s="5"/>
+      <c r="B26" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A27" s="5"/>
+      <c r="B27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="5"/>
+    </row>
+    <row r="29" spans="1:3" ht="108" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="108" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
+      <c r="C29" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="27" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
+      <c r="C30" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A44" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A45" s="3" t="s">
-        <v>65</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A57" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A58" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A59" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A60" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A61" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A62" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A49" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A50" s="3" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A63" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A64" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A51" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A52" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="54" x14ac:dyDescent="0.15">
-      <c r="B53" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>82</v>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="54" x14ac:dyDescent="0.15">
+      <c r="B66" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="A7:A14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
